--- a/data/financial_statements/socf/PNC.xlsx
+++ b/data/financial_statements/socf/PNC.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -110,9 +230,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -165,12 +282,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -467,2412 +581,2415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>-4565000000</v>
+      </c>
+      <c r="C2">
         <v>1640000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1496000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1429000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1306000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1490000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1103000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1826000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1456000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1532000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>3655000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>915000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1381000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1392000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1374000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1271000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>1351000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1400000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1356000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1239000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>2091000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>1126000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>1097000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>1074000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>1047000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>1006000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>989000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>943000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>1022000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>1073000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>1044000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>1004000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>1057000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>1038000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>1052000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>1060000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>1074000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>1028000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>1115000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>995000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>58000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>144000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>385000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>558000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>421000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>419000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>375000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>553000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>232000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>384000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>328000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>411000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>325000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>307000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>272000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>290000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>272000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>287000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>280000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>258000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>291000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>289000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>279000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>276000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>356000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>291000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>270000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>286000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>272000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>278000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>252000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>264000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>248000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>240000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>236000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>263000000</v>
-      </c>
-      <c r="AL3">
-        <v>300000000</v>
       </c>
       <c r="AM3">
         <v>300000000</v>
       </c>
       <c r="AN3">
+        <v>300000000</v>
+      </c>
+      <c r="AO3">
         <v>283000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>239000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>11000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-411000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>4000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-418000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>846000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-1012000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-14000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>62000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>-5784000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1252000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>196000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>269000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>326000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>399000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>522000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>-329000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>40000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>-45000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>-745000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>158000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>179000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>42000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>79000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>-92000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>125000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>339000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>206000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>224000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>-172000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>99000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>347000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>-126000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>122000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>49000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>190000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>156000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>253000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>373000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>-35000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>355000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>642000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-90000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>49000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-97000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-342000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>161000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-363000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>282000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>-452000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>759000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-766000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>-436000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>320000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>725000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>-412000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>-353000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1675000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>-1185000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>-413000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>-615000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>1065000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>-445000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>238000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>-779000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>51000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>479000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>305000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>-123000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>-268000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>-185000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>-121000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>-87000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>-12000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>-212000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>873000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>-824000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>69000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
         <v>752000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-301000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-1024000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>283000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-388000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>212000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>564000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-175000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1398000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>748000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>-1014000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>-181000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>-724000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1107000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>358000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>-1186000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>132000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>-15000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>176000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>53000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>1328000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>-671000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>-405000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>-138000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>-164000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>81000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>-946000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>38000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>187000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>207000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>-229000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>129000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>-211000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>223000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>616000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>-1438000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>520000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>351000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>112000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
         <v>1095000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>522000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>969000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>412000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1123000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-1027000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>245000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-1298000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-2117000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-2215000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>5376000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>-699000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>19000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>-984000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>1796000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>-1900000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>632000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>853000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>710000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>-709000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>369000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>520000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>-884000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>-1545000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>18000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>1095000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>1084000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>-4068000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>2466000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>-1230000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>1044000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>-163000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>-49000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>25000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>356000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>-1399000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>-1310000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>-436000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>-845000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>-355000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>405000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-2979000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1021000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-752000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-41000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-876000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1252000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-351000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>5957000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>-7101000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1248000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>89000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>549000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-3015000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>2335000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>-531000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>-551000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>-1113000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>1101000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>-364000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>-169000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>419000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>1931000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>172000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>-1317000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>-1465000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>3929000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>-2550000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>1392000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>-1642000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>-444000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>331000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>-25000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>-385000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>1181000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>2533000000</v>
-      </c>
-      <c r="AM8">
-        <v>25000000</v>
       </c>
       <c r="AN8">
         <v>25000000</v>
       </c>
+      <c r="AO8">
+        <v>25000000</v>
+      </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>2677000000</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C9">
-        <v>2578000000</v>
+        <v>3394000000</v>
       </c>
       <c r="D9">
-        <v>-607000000</v>
+        <v>2632000000</v>
       </c>
       <c r="E9">
-        <v>3301000000</v>
+        <v>-989000000</v>
       </c>
       <c r="F9">
-        <v>1864000000</v>
+        <v>3494000000</v>
       </c>
       <c r="G9">
+        <v>1525000000</v>
+      </c>
+      <c r="H9">
         <v>1415000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>780000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1935000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>393000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>3027000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-696000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>3115000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>604000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>2243000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>1401000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>2137000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>1164000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>1617000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>2922000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>864000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>2495000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>630000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>1590000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>1205000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>1534000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>485000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>276000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>1892000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>1977000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>1396000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>260000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>1005000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>1110000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>1550000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>1920000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>-341000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>4100000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>784000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>1012000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>-10511000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>75000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>-19000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>0</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>-1323000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
         <v>-11860000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>19931000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>24996000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1323000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-3075000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>27088000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-1124000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-14169000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-19493000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-30752000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>4392000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-2670000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-2020000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-3373000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>442000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>2757000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>2051000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>7186000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>-129000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-3730000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>-2275000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>5716000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>-2840000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>823000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>449000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>2376000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>1313000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>3842000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>181000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>-2849000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>540000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>-5622000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>-9608000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>-2383000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>-1899000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>-5163000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>-3550000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>-2598000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>2630000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>-4047000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-3718000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-6343000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-10008000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>2520000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-11664000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-9280000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1280000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>7557000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>6893000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-2102000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1149000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>-896000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>-2235000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>-431000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-1021000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>-909000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>-6037000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>519000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-1690000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>1069000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>1164000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>-424000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>633000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>-6168000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>279000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>-818000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>-4202000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>-5020000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>-1231000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>-4135000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>-659000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>1327000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>2346000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>1831000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>-2738000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>-667000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>1626000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>1602000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>-1128000000</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C13">
-        <v>-1371000000</v>
+        <v>-5783000000</v>
       </c>
       <c r="D13">
-        <v>224000000</v>
+        <v>-17903000000</v>
       </c>
       <c r="E13">
-        <v>-1144000000</v>
+        <v>-5946000000</v>
       </c>
       <c r="F13">
-        <v>-520000000</v>
+        <v>-372000000</v>
       </c>
       <c r="G13">
+        <v>3867000000</v>
+      </c>
+      <c r="H13">
         <v>4109000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>4332000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>6146000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>8794000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>6001000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-25669000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-2819000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>-326000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-5852000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-6034000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-4051000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>-337000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>-2358000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>-1640000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>48000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>-3529000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>-4706000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>-2356000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>-1159000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>-1796000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>-1836000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>-1403000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>-2366000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>-212000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>-517000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>-291000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>-4065000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>16000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>-3260000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>-2917000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>-3205000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>-2969000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>-3051000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>-852000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>-20973000000</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C14">
-        <v>-1636000000</v>
+        <v>-21690000000</v>
       </c>
       <c r="D14">
-        <v>12325000000</v>
+        <v>-1690000000</v>
       </c>
       <c r="E14">
-        <v>-8864000000</v>
+        <v>12707000000</v>
       </c>
       <c r="F14">
-        <v>2973000000</v>
+        <v>-9057000000</v>
       </c>
       <c r="G14">
+        <v>3312000000</v>
+      </c>
+      <c r="H14">
         <v>9022000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-6072000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-6743000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-3142000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>-17858000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-23379000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>-4265000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>-3242000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>-11460000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-6023000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>-2315000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>805000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>-1209000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>-1250000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>-5391000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>-4735000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>851000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>-5620000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>297000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>-7515000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>819000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>-908000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>-2726000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>-5051000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>-4597000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>-3886000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>-10346000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>-8265000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>-3297000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>-2985000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>-11106000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>-7186000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>-4023000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>3380000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>19325000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>9953000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-3263000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-2412000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>-1221000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-863000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-3495000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-4537000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-5407000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>-26553000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>11886000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-870000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>-7831000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>8704000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>1980000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>-1070000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>-1252000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>1354000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>-573000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>1617000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>1251000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>1114000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>2530000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>1805000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>-2974000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>352000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>-479000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>-1911000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>-1888000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>1585000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>-153000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>4429000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>3348000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>2185000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>507000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>5955000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>418000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>2482000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>-3522000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>-978000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-785000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-1257000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-630000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-352000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>8000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-39000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-9000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-61000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>10000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>-1499000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-935000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>-980000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>-769000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-804000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>-724000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>-443000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>-834000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>-807000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>-482000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>-527000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>-678000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>-628000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>-415000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>-471000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>-492000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>-533000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>-545000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>-557000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>-508000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>-403000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>-494000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>-318000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>-197000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>85000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>48000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>64000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>101000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>7000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>1235000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>990000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-1000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1485000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-480000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>519000000</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
       </c>
       <c r="AD17">
         <v>0</v>
       </c>
       <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
         <v>-500000000</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
       </c>
       <c r="AL17">
         <v>0</v>
       </c>
       <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
         <v>346000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>-687000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-697000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-576000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-604000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-595000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>-540000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-550000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-540000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-557000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>-546000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>-566000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>-564000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>-581000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>-487000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>-499000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>-497000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>-509000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>-410000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>-421000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-417000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>-427000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>-324000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>-334000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>-311000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>-338000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>-297000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>-324000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>-300000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>-326000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>-312000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>-319000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>-299000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>-327000000</v>
-      </c>
-      <c r="AI18">
-        <v>-303000000</v>
       </c>
       <c r="AJ18">
         <v>-303000000</v>
       </c>
       <c r="AK18">
+        <v>-303000000</v>
+      </c>
+      <c r="AL18">
         <v>-283000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>-303000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>-285000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>-277000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>-2633000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-9393000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-7054000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>8371000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-4035000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-7773000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>9814000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>10282000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>9065000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>40765000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>16686000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>2909000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>12285000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>2123000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>3399000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>2829000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>58000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>258000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>-471000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>4322000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>1640000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>-1557000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>2586000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>-2752000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>10099000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>-532000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>1764000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>3820000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>5268000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>3197000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>4292000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>5901000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>3724000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>231000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>1456000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>4862000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>3764000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>698000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>-1872000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>16262000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>68000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-12150000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>4724000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-4718000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-9168000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>5730000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>5196000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>3040000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>13676000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>26507000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>540000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>2893000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>9571000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>4076000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>538000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>-2146000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>368000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>-2272000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>5040000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>1937000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>-1445000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>4154000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>-1154000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>6316000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>-969000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>428000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>1064000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>2497000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>3462000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>3417000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>9537000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>6427000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>1916000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>1745000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>10582000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>3943000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>3342000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>-5664000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
         <v>-2034000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>1010000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-432000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-839000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>119000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1269000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>438000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>388000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>291000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>-1155000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>2432000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>-610000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>255000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>354000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-546000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>360000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>-177000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>776000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>-600000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>513000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-303000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>36000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>124000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>348000000</v>
-      </c>
-      <c r="Z21">
-        <v>335000000</v>
       </c>
       <c r="AA21">
         <v>335000000</v>
       </c>
       <c r="AB21">
+        <v>335000000</v>
+      </c>
+      <c r="AC21">
         <v>-204000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>230000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>-577000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>261000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>-209000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>196000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>-728000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>169000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>680000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>-865000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>857000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>103000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>-1272000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
         <v>8004000000</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2881,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>7017000000</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2893,10 +3010,10 @@
         <v>0</v>
       </c>
       <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>5061000000</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2905,10 +3022,10 @@
         <v>0</v>
       </c>
       <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>5608000000</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -2917,10 +3034,10 @@
         <v>0</v>
       </c>
       <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
         <v>5249000000</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2929,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
         <v>4879000000</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -2941,10 +3058,10 @@
         <v>0</v>
       </c>
       <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
         <v>4065000000</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
       </c>
       <c r="AD22">
         <v>0</v>
@@ -2953,10 +3070,10 @@
         <v>0</v>
       </c>
       <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
         <v>4360000000</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
       </c>
       <c r="AH22">
         <v>0</v>
@@ -2965,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
         <v>4043000000</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
       </c>
       <c r="AL22">
         <v>0</v>
@@ -2977,982 +3094,991 @@
         <v>0</v>
       </c>
       <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
         <v>5220000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>-2034000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>1010000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>7572000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-839000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>119000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1269000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>7455000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>388000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>291000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>-1155000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>7493000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>-610000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>255000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>354000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>5062000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>360000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>-177000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>776000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>4649000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>513000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>-303000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>36000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>5003000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>348000000</v>
-      </c>
-      <c r="Z23">
-        <v>335000000</v>
       </c>
       <c r="AA23">
         <v>335000000</v>
       </c>
       <c r="AB23">
+        <v>335000000</v>
+      </c>
+      <c r="AC23">
         <v>3861000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>230000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>-577000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>261000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>4151000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>196000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>-728000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>169000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>4723000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>-865000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>857000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>103000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>3948000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>1779000000</v>
+      </c>
+      <c r="C24">
         <v>-622000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>-626000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-531000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-533000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>-538000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-492000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>-493000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>-492000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-494000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>-491000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>-503000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>-509000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>-518000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>-432000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>-436000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>-442000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>-446000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>-355000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>-358000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>-362000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>-364000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>-269000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>-271000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>-270000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>-275000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>-256000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>-260000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>-259000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>-263000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>-265000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>-251000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>-252000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>-257000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>-256000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>-235000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>-234000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>-233000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>-234000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>-210000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
-        <v>0.2142</v>
+        <v>0.4603</v>
       </c>
       <c r="C25">
-        <v>0.06950000000000001</v>
+        <v>0.1503</v>
       </c>
       <c r="D25">
-        <v>-0.3198</v>
+        <v>0.0061</v>
       </c>
       <c r="E25">
-        <v>-0.4972</v>
+        <v>-0.3663</v>
       </c>
       <c r="F25">
+        <v>-0.5602</v>
+      </c>
+      <c r="G25">
         <v>-0.5681</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>-0.5276</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>-0.7499</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-0.7131999999999999</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-0.4779</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>0.1753</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>2.0948</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>0.4455</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>0.4791</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>0.6138</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>0.6847</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>0.6578000000000001</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>0.4337</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>0.4238</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>0.2845</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>0.2941</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.4344</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>0.4779</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>0.2955</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>0.3078</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>0.3486</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>0.4579</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>0.362</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>0.3134</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>0.262</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>0.2112</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>0.223</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>0.1641</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>0.2032</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>0.3253</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>0.3355</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>0.3804</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>0.3821</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>0.4533</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>0.5111</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
         <v>1457000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>981000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>-2392000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1626000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>32000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>-953000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-409000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-60000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-1433000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>4772000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>-3191000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>1127000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>-1382000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>236000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>-541000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>-26000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>-179000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>-66000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>1448000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>-740000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>920000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>-935000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>195000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>-197000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>264000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>-920000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>-1276000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>378000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>408000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>246000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>-1095000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>-663000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>-50000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>136000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>575000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>-1868000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>2616000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>-884000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>-639000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
         <v>-15907000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>16213000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>18653000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-8685000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>-555000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>15424000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-10404000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-12889000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-11936000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>-23859000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>2290000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-1521000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>-2916000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>-5608000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>11000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>1736000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>1142000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>1149000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>390000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>-5420000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>-1206000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>6880000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>-3264000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>1456000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>-5719000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>2655000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>495000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>-360000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>-4839000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>-4080000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>-3595000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>-6281000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>-8281000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>-37000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>-68000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>-7901000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>-4217000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>-972000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>4232000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>-65000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-71000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-45000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-71000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-57000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>-48000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-57000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-48000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-63000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-55000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>-63000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-55000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>-63000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>-55000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>-63000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-55000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>-63000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>-55000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>-63000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-55000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-63000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-55000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>-63000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>-41000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>-63000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>-41000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>-64000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>-41000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>-63000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>-47000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-68000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>-47000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>-70000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>-47000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>-68000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>-49000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>-70000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>-51000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>-67000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>257000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>205000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>-1257000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-631000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1133000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>8000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-39000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-9000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-61000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>10000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-1499000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>-935000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>-980000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-769000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>-804000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-724000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>-443000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>-834000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>-807000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-482000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>-527000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-678000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>-628000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>104000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>-471000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>-492000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>-533000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>-545000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>-557000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>-1008000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>-403000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>-494000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>-318000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>-197000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>85000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>48000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>64000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>447000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>7000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
         <v>257000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>205000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-1257000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-631000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1133000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>8000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-39000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-489000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-61000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>10000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-1499000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>-935000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>-980000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>-769000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>-804000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>-724000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>-443000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>-834000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>-807000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-482000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>-527000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-678000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>-628000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>104000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>-471000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>-492000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>-533000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>-545000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>-557000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>-1008000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>-403000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>-494000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>-318000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>-197000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>85000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>48000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>64000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>447000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>7000000</v>
       </c>
     </row>
